--- a/biology/Médecine/Pyrogène_(médecine)/Pyrogène_(médecine).xlsx
+++ b/biology/Médecine/Pyrogène_(médecine)/Pyrogène_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pyrog%C3%A8ne_(m%C3%A9decine)</t>
+          <t>Pyrogène_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En médecine, pyrogène désigne une molécule ou une circonstance (infection...) qui « élève la température », « donne de la fièvre », fièvre qui est généralement le signe d'un processus inflammatoire en cours, lequel peut avoir diverses origines. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pyrog%C3%A8ne_(m%C3%A9decine)</t>
+          <t>Pyrogène_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,19 +525,94 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cytokines
-Les cytokines font partie des pyrogènes permettant naturellement certaines réactions immunitaires, ainsi que la « régulation du thermostat hypothalamique ».
+          <t>Cytokines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cytokines font partie des pyrogènes permettant naturellement certaines réactions immunitaires, ainsi que la « régulation du thermostat hypothalamique ».
 Par exemple de l'interleukine-1 (IL-1), cytokine augmente la valeur du « thermostat hypothalamique », qui est sécrétée par les cellules phagocytaires présentes sur un site infectieux. 
 Cette sécrétion est assurée par la prostaglandine E2 (PGE2), qui est elle-même synthétisée à partir de l'acide arachidonique via la cyclo-oxygénase 2 (COX2). 
-Ce qui explique l'effet anti-pyrétiques de l'aspirine lors d'un état fébrile ; il inhibe la COX2 et, diminue indéniablement la production de PGE2 et donc d'Il-1. Ce qui a pour effet de diminuer la chaleur corporelle[1].
-Toxines
-Certains venins animaux susceptibles d'être injectés par un dard, des crochets, etc. sont pyrogènes.
-certains composants (endotoxines) relâchés dans l'eau et l'environnement par des micro-organismes vivants ou morts (bactéries à Gram négatif, cyanophycées...) dans l'eau sont pyrogènes ; une bonne potabilisation de l'eau devrait les éliminer[2]. Ils doivent aussi être éliminés des eaux qui servent à produire des composés injectables[2], dialysats d'hémodialyse notamment[3],[4]. Ce sont des molécules organiques qui peuvent être détruits par ultrafiltration[5], par ozonation[2] ou par un autre Processus d'oxydation avancé.
-Maladies infectieuses
-Certaines maladies infectieuses produisent des fièvres accompagnées de pétéchies produits par thrombocytopénie. 
-La fièvre est généralement une réponse à un micro-organisme ou parasite, et parfois à une substance pyrogène produite par ce micro-organisme et restant présente après sa mort (substance résistant à la cuisson)C'est par exemple le cas d'une fièvre récurrente (borréliose endémique de l'Est de l'Afrique, due à la bactérie spirochète Borrelia recurrentis, transmise par des poux ou tiques lors de leurs morsures)[6].  
+Ce qui explique l'effet anti-pyrétiques de l'aspirine lors d'un état fébrile ; il inhibe la COX2 et, diminue indéniablement la production de PGE2 et donc d'Il-1. Ce qui a pour effet de diminuer la chaleur corporelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pyrogène_(médecine)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pyrog%C3%A8ne_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exemples de pyrogènes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Toxines</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains venins animaux susceptibles d'être injectés par un dard, des crochets, etc. sont pyrogènes.
+certains composants (endotoxines) relâchés dans l'eau et l'environnement par des micro-organismes vivants ou morts (bactéries à Gram négatif, cyanophycées...) dans l'eau sont pyrogènes ; une bonne potabilisation de l'eau devrait les éliminer. Ils doivent aussi être éliminés des eaux qui servent à produire des composés injectables, dialysats d'hémodialyse notamment,. Ce sont des molécules organiques qui peuvent être détruits par ultrafiltration, par ozonation ou par un autre Processus d'oxydation avancé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pyrogène_(médecine)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pyrog%C3%A8ne_(m%C3%A9decine)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Exemples de pyrogènes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Maladies infectieuses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines maladies infectieuses produisent des fièvres accompagnées de pétéchies produits par thrombocytopénie. 
+La fièvre est généralement une réponse à un micro-organisme ou parasite, et parfois à une substance pyrogène produite par ce micro-organisme et restant présente après sa mort (substance résistant à la cuisson)C'est par exemple le cas d'une fièvre récurrente (borréliose endémique de l'Est de l'Afrique, due à la bactérie spirochète Borrelia recurrentis, transmise par des poux ou tiques lors de leurs morsures).  
 Butler &amp; al.(1979), ont confirmé que ces spirochètes concentrés à partir du sang de trois patients produisent une fièvre chez le lapin. Ce matériau reste cependant pyrogène (produit de la fièvre) après chauffage à 100 °C pendant 15 minutes, ce qui laisse penser que des endotoxines thermorésistantes produites par la bactérie puissent être impliquées, d'autant qu'une endotoxémie a été détectée chez certains patients (7sur 28 patients dans ce cas), mais « associée à d'autres infections bactériennes et à une dysfonction hépatique marquée ». 
-Des pétéchies ont été observées dans 37 cas (41 %) des 90 patients. Les biopsies des pétéchies y révèlent des cellules rouges et effectivement la présence de spirochètes dans le derme, sans vascularite ni thrombose. La numération plaquettaire de 37 patients porteurs de pétéchies (moy:34x10⁹/L) était significativement plus faible que celle des 53 autres patients (48x10⁹/L) sans pétéchies (P &lt;0,05). D'autres études laissent penser que des toxines émises dans le sang par cette bactérie contribuent à d'autres symptômes dont la « réaction de Jarisch-Herxheimer »[7].
+Des pétéchies ont été observées dans 37 cas (41 %) des 90 patients. Les biopsies des pétéchies y révèlent des cellules rouges et effectivement la présence de spirochètes dans le derme, sans vascularite ni thrombose. La numération plaquettaire de 37 patients porteurs de pétéchies (moy:34x10⁹/L) était significativement plus faible que celle des 53 autres patients (48x10⁹/L) sans pétéchies (P &lt;0,05). D'autres études laissent penser que des toxines émises dans le sang par cette bactérie contribuent à d'autres symptômes dont la « réaction de Jarisch-Herxheimer ».
 </t>
         </is>
       </c>
